--- a/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(-2015)/家庭设备用品及维修服务类居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(-2015)/家庭设备用品及维修服务类居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,496 +478,186 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.59999999999999</v>
+        <v>99.93447999999999</v>
       </c>
       <c r="C2" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100.2751</v>
+      </c>
+      <c r="E2" t="n">
+        <v>106.72596</v>
+      </c>
+      <c r="F2" t="n">
+        <v>99.98625</v>
+      </c>
+      <c r="G2" t="n">
         <v>97.40000000000001</v>
       </c>
-      <c r="D2" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F2" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="G2" t="n">
-        <v>96.2</v>
-      </c>
       <c r="H2" t="n">
-        <v>98.7</v>
+        <v>99.90087</v>
       </c>
       <c r="I2" t="n">
-        <v>96.59999999999999</v>
+        <v>98.48112999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.2503</v>
+        <v>101.00545516</v>
       </c>
       <c r="C3" t="n">
-        <v>98</v>
+        <v>102.41712548</v>
       </c>
       <c r="D3" t="n">
-        <v>98.6091</v>
+        <v>102.47536884</v>
       </c>
       <c r="E3" t="n">
-        <v>101.5169</v>
+        <v>111.39255203</v>
       </c>
       <c r="F3" t="n">
-        <v>97.73609999999999</v>
+        <v>102.39409446</v>
       </c>
       <c r="G3" t="n">
-        <v>95.09999999999999</v>
+        <v>99.30891918</v>
       </c>
       <c r="H3" t="n">
-        <v>99.34739999999999</v>
+        <v>104.74996218</v>
       </c>
       <c r="I3" t="n">
-        <v>96.13639999999999</v>
+        <v>100.36603534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.7779</v>
+        <v>100.77929797</v>
       </c>
       <c r="C4" t="n">
-        <v>97.7</v>
+        <v>101.25611924</v>
       </c>
       <c r="D4" t="n">
-        <v>97.9936</v>
+        <v>102.60269004</v>
       </c>
       <c r="E4" t="n">
-        <v>101.2419</v>
+        <v>109.71427611</v>
       </c>
       <c r="F4" t="n">
-        <v>97.4525</v>
+        <v>101.93570036</v>
       </c>
       <c r="G4" t="n">
-        <v>95</v>
+        <v>99.87996659</v>
       </c>
       <c r="H4" t="n">
-        <v>98.7242</v>
+        <v>100.43444548</v>
       </c>
       <c r="I4" t="n">
-        <v>95.9487</v>
+        <v>100.35757288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>98.82599999999999</v>
+        <v>100.4</v>
       </c>
       <c r="C5" t="n">
-        <v>97.8853</v>
+        <v>101.24947982</v>
       </c>
       <c r="D5" t="n">
-        <v>98.30289999999999</v>
+        <v>101.28385808</v>
       </c>
       <c r="E5" t="n">
-        <v>101.0792</v>
+        <v>108.7</v>
       </c>
       <c r="F5" t="n">
-        <v>97.4151</v>
+        <v>101.5</v>
       </c>
       <c r="G5" t="n">
-        <v>94.637</v>
+        <v>99.75073888999999</v>
       </c>
       <c r="H5" t="n">
-        <v>98.44759999999999</v>
+        <v>100.47001879</v>
       </c>
       <c r="I5" t="n">
-        <v>95.8017</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99.1867</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>98.8612</v>
+        <v>101.48047204</v>
       </c>
       <c r="D6" t="n">
-        <v>99.8484</v>
+        <v>100.8059513</v>
       </c>
       <c r="E6" t="n">
-        <v>101.8716</v>
+        <v>107.3</v>
       </c>
       <c r="F6" t="n">
-        <v>98.63679999999999</v>
+        <v>101.2</v>
       </c>
       <c r="G6" t="n">
-        <v>96.0988</v>
+        <v>99.66704808999999</v>
       </c>
       <c r="H6" t="n">
-        <v>99.3051</v>
+        <v>100.00167321</v>
       </c>
       <c r="I6" t="n">
-        <v>97.1037</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.46040000000001</v>
+        <v>100.47453</v>
       </c>
       <c r="C7" t="n">
-        <v>99.24420000000001</v>
+        <v>100.95723476</v>
       </c>
       <c r="D7" t="n">
-        <v>100.374</v>
+        <v>100.73264</v>
       </c>
       <c r="E7" t="n">
-        <v>104.35</v>
+        <v>106.61923</v>
       </c>
       <c r="F7" t="n">
-        <v>99.8929</v>
+        <v>101.02009</v>
       </c>
       <c r="G7" t="n">
-        <v>98.49120000000001</v>
+        <v>99.41919596</v>
       </c>
       <c r="H7" t="n">
-        <v>99.405</v>
+        <v>100.15916</v>
       </c>
       <c r="I7" t="n">
-        <v>98.7657</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>99.96635999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100.23647664</v>
-      </c>
-      <c r="D8" t="n">
-        <v>101.09159</v>
-      </c>
-      <c r="E8" t="n">
-        <v>105.76011</v>
-      </c>
-      <c r="F8" t="n">
-        <v>101.22026</v>
-      </c>
-      <c r="G8" t="n">
-        <v>101.1999268</v>
-      </c>
-      <c r="H8" t="n">
-        <v>99.55529</v>
-      </c>
-      <c r="I8" t="n">
-        <v>100.84694</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>100.30424</v>
-      </c>
-      <c r="C9" t="n">
-        <v>101.90132604</v>
-      </c>
-      <c r="D9" t="n">
-        <v>101.74827</v>
-      </c>
-      <c r="E9" t="n">
-        <v>107.19991</v>
-      </c>
-      <c r="F9" t="n">
-        <v>101.93749</v>
-      </c>
-      <c r="G9" t="n">
-        <v>101.44254168</v>
-      </c>
-      <c r="H9" t="n">
-        <v>99.42923999999999</v>
-      </c>
-      <c r="I9" t="n">
-        <v>101.61369</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>100.2057</v>
-      </c>
-      <c r="C10" t="n">
-        <v>102.25366559</v>
-      </c>
-      <c r="D10" t="n">
-        <v>104.915</v>
-      </c>
-      <c r="E10" t="n">
-        <v>109.02315</v>
-      </c>
-      <c r="F10" t="n">
-        <v>102.82887</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100.65378865</v>
-      </c>
-      <c r="H10" t="n">
-        <v>99.71724</v>
-      </c>
-      <c r="I10" t="n">
-        <v>101.24527</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>99.73927999999999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>99.67330873</v>
-      </c>
-      <c r="D11" t="n">
-        <v>102.49933</v>
-      </c>
-      <c r="E11" t="n">
-        <v>105.22058</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100.18234</v>
-      </c>
-      <c r="G11" t="n">
-        <v>97.2966438</v>
-      </c>
-      <c r="H11" t="n">
-        <v>98.77534</v>
-      </c>
-      <c r="I11" t="n">
-        <v>98.14852999999999</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>99.93447999999999</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="D12" t="n">
-        <v>100.2751</v>
-      </c>
-      <c r="E12" t="n">
-        <v>106.72596</v>
-      </c>
-      <c r="F12" t="n">
-        <v>99.98625</v>
-      </c>
-      <c r="G12" t="n">
-        <v>97.40000000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>99.90087</v>
-      </c>
-      <c r="I12" t="n">
-        <v>98.48112999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>101.00545516</v>
-      </c>
-      <c r="C13" t="n">
-        <v>102.41712548</v>
-      </c>
-      <c r="D13" t="n">
-        <v>102.47536884</v>
-      </c>
-      <c r="E13" t="n">
-        <v>111.39255203</v>
-      </c>
-      <c r="F13" t="n">
-        <v>102.39409446</v>
-      </c>
-      <c r="G13" t="n">
-        <v>99.30891918</v>
-      </c>
-      <c r="H13" t="n">
-        <v>104.74996218</v>
-      </c>
-      <c r="I13" t="n">
-        <v>100.36603534</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>100.77929797</v>
-      </c>
-      <c r="C14" t="n">
-        <v>101.25611924</v>
-      </c>
-      <c r="D14" t="n">
-        <v>102.60269004</v>
-      </c>
-      <c r="E14" t="n">
-        <v>109.71427611</v>
-      </c>
-      <c r="F14" t="n">
-        <v>101.93570036</v>
-      </c>
-      <c r="G14" t="n">
-        <v>99.87996659</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100.43444548</v>
-      </c>
-      <c r="I14" t="n">
-        <v>100.35757288</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>101.24947982</v>
-      </c>
-      <c r="D15" t="n">
-        <v>101.28385808</v>
-      </c>
-      <c r="E15" t="n">
-        <v>108.7</v>
-      </c>
-      <c r="F15" t="n">
-        <v>101.5</v>
-      </c>
-      <c r="G15" t="n">
-        <v>99.75073888999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100.47001879</v>
-      </c>
-      <c r="I15" t="n">
-        <v>100.3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>100</v>
-      </c>
-      <c r="C16" t="n">
-        <v>101.48047204</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100.8059513</v>
-      </c>
-      <c r="E16" t="n">
-        <v>107.3</v>
-      </c>
-      <c r="F16" t="n">
-        <v>101.2</v>
-      </c>
-      <c r="G16" t="n">
-        <v>99.66704808999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100.00167321</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100.3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>100.47453</v>
-      </c>
-      <c r="C17" t="n">
-        <v>100.95723476</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100.73264</v>
-      </c>
-      <c r="E17" t="n">
-        <v>106.61923</v>
-      </c>
-      <c r="F17" t="n">
-        <v>101.02009</v>
-      </c>
-      <c r="G17" t="n">
-        <v>99.41919596</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100.15916</v>
-      </c>
-      <c r="I17" t="n">
         <v>99.96935000000001</v>
       </c>
     </row>
